--- a/web_test_tytest/data/login_data.xlsx
+++ b/web_test_tytest/data/login_data.xlsx
@@ -28,7 +28,7 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>砼联数字科技有限公司</t>
+    <t>当前机构：砼联数字科技有限公司</t>
   </si>
   <si>
     <t>137308700861</t>
@@ -991,7 +991,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
